--- a/relatorio_pesquisadores.xlsx
+++ b/relatorio_pesquisadores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>researcher_id</t>
   </si>
@@ -61,6 +61,39 @@
     <t>pontuacao_final_tec_peso_3</t>
   </si>
   <si>
+    <t>pos_doutorado_concluido_andamento</t>
+  </si>
+  <si>
+    <t>doutorado_concluido</t>
+  </si>
+  <si>
+    <t>doutorado_andamento</t>
+  </si>
+  <si>
+    <t>mestrado_concluido</t>
+  </si>
+  <si>
+    <t>mestrado_andamento</t>
+  </si>
+  <si>
+    <t>bolsas_natureza_tecnologica</t>
+  </si>
+  <si>
+    <t>bolsa_ic_e_outras</t>
+  </si>
+  <si>
+    <t>organizacao_programas_capacitacao</t>
+  </si>
+  <si>
+    <t>capacitacao_treinamento_rh</t>
+  </si>
+  <si>
+    <t>nota_etapa_2</t>
+  </si>
+  <si>
+    <t>status_etapa_2</t>
+  </si>
+  <si>
     <t>3b00e1f7-08cb-4e27-bd8c-c5f7373b5dba</t>
   </si>
   <si>
@@ -74,6 +107,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Segundo bloco em desenvolvimento</t>
   </si>
   <si>
     <t>42b7a0c6-153e-43d0-bce8-20af5a07eab9</t>
@@ -156,9 +192,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:O4" totalsRowShown="0">
-  <autoFilter ref="A1:O4"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:Z4" totalsRowShown="0">
+  <autoFilter ref="A1:Z4"/>
+  <tableColumns count="26">
     <tableColumn id="1" name="researcher_id" dataDxfId="0"/>
     <tableColumn id="2" name="nome" dataDxfId="0"/>
     <tableColumn id="3" name="lattes_id" dataDxfId="0"/>
@@ -174,6 +210,17 @@
     <tableColumn id="13" name="total_producao_tec_inovacao" dataDxfId="1"/>
     <tableColumn id="14" name="nota_base_producao_tec" dataDxfId="1"/>
     <tableColumn id="15" name="pontuacao_final_tec_peso_3" dataDxfId="1"/>
+    <tableColumn id="16" name="pos_doutorado_concluido_andamento" dataDxfId="1"/>
+    <tableColumn id="17" name="doutorado_concluido" dataDxfId="1"/>
+    <tableColumn id="18" name="doutorado_andamento" dataDxfId="1"/>
+    <tableColumn id="19" name="mestrado_concluido" dataDxfId="1"/>
+    <tableColumn id="20" name="mestrado_andamento" dataDxfId="1"/>
+    <tableColumn id="21" name="bolsas_natureza_tecnologica" dataDxfId="1"/>
+    <tableColumn id="22" name="bolsa_ic_e_outras" dataDxfId="1"/>
+    <tableColumn id="23" name="organizacao_programas_capacitacao" dataDxfId="1"/>
+    <tableColumn id="24" name="capacitacao_treinamento_rh" dataDxfId="1"/>
+    <tableColumn id="25" name="nota_etapa_2" dataDxfId="1"/>
+    <tableColumn id="26" name="status_etapa_2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -464,13 +511,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,25 +563,58 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2">
         <v>5</v>
@@ -563,25 +643,58 @@
       <c r="O2" s="2">
         <v>6</v>
       </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>9</v>
+      </c>
+      <c r="R2" s="2">
+        <v>3</v>
+      </c>
+      <c r="S2" s="2">
+        <v>7</v>
+      </c>
+      <c r="T2" s="2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2">
         <v>5</v>
@@ -610,25 +723,58 @@
       <c r="O3" s="2">
         <v>6</v>
       </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>2</v>
+      </c>
+      <c r="R3" s="2">
+        <v>7</v>
+      </c>
+      <c r="S3" s="2">
+        <v>7</v>
+      </c>
+      <c r="T3" s="2">
+        <v>6</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2">
         <v>10</v>
@@ -656,6 +802,39 @@
       </c>
       <c r="O4" s="2">
         <v>24</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>5</v>
+      </c>
+      <c r="S4" s="2">
+        <v>13</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
